--- a/Product Data Template.xlsx
+++ b/Product Data Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Sanjid &amp; Eric\Sanjid Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08351E4A-8A75-440E-9D82-90B802E82F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0944E3-913C-4006-AC7C-CCE01A9D8F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <definedName name="Brushes">Categories!$EE$2:$EE$5</definedName>
     <definedName name="Builders_Hardware">Categories!$R$2:$R$6</definedName>
     <definedName name="Building_Products">Categories!$E$2:$E$16</definedName>
-    <definedName name="Categories">Categories!$B$2:$B$10</definedName>
+    <definedName name="Categories">Categories!$B$2:$B$12</definedName>
     <definedName name="Chain___Rope">Categories!$BR$2:$BR$9</definedName>
     <definedName name="Chain_Rope_Straps___Tie_Downs">Categories!$S$2:$S$7</definedName>
     <definedName name="Chainsaws">Categories!$CU$2:$CU$5</definedName>
@@ -177,6 +177,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -8848,8 +8851,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EM650"/>
   <sheetViews>
-    <sheetView topLeftCell="DW1" workbookViewId="0">
-      <selection activeCell="EL4" sqref="EL4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
